--- a/practice/compare_2_excel/Employee_Sample_Data.xlsx
+++ b/practice/compare_2_excel/Employee_Sample_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gedua\Desktop\script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Study\Programming\py_stuff\practice\compare_2_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3628F98B-4E64-4583-B1F8-FAEE3AD7D003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45DB8CD-0C6D-4D99-A9A5-6667A2FD6510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{65C14963-D7D9-489F-85DF-B390E3AF6B64}"/>
   </bookViews>
@@ -6739,7 +6739,7 @@
   <dimension ref="A1:N1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
